--- a/Zeta_Plots/20240122_Zeta_DIP_serum_50ngformation_2-5ngfinal.xlsx
+++ b/Zeta_Plots/20240122_Zeta_DIP_serum_50ngformation_2-5ngfinal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/Zeta-Potential_Plots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/Zeta_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E54B354-DFD9-9844-93E2-C7C230418D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5341190-9DF8-A14F-B4EF-6F0820BDD267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="760" windowWidth="25600" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="3580" windowWidth="25600" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7992FF-4BA2-EE42-A897-65C990A511BC}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
